--- a/results/fitting_evaluation_interval_size_0.5_K100_N100_Nelder-Mead.xlsx
+++ b/results/fitting_evaluation_interval_size_0.5_K100_N100_Nelder-Mead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\amistat2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780A68CA-35FA-457A-8DD9-8C0F47BB083B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C3EEE-FD4E-449C-8257-314B13B7168A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="36690" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="75">
   <si>
     <t>model_type</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>converged total</t>
   </si>
+  <si>
+    <t>criteria correct</t>
+  </si>
+  <si>
+    <t>model correct</t>
+  </si>
 </sst>
 </file>
 
@@ -320,13 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +678,10 @@
   <dimension ref="A1:BI1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,6 +755,13 @@
         <f>SUBTOTAL(2,AM$7:AM$1030)/SUBTOTAL(2,L$7:L$1030)</f>
         <v>0.984375</v>
       </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4">
+        <f>SUBTOTAL(1,AS7:BH1030)</f>
+        <v>0.8154296875</v>
+      </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -752,6 +771,13 @@
         <f>SUBTOTAL(2,U$7:U$1030)/SUBTOTAL(2,I$7:I$1030)</f>
         <v>0.89453125</v>
       </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5">
+        <f>BI5</f>
+        <v>0.85019531250000036</v>
+      </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -770,6 +796,7 @@
         <f>SUBTOTAL(2,AG$7:AG$1030)/SUBTOTAL(2,K$7:K$1030)</f>
         <v>1</v>
       </c>
+      <c r="AS4" s="6"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
